--- a/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_自動請求.xlsx
+++ b/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_自動請求.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\総合テスト_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F00A1-AF82-49CB-BDA9-EDD4ED92E273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83693CF6-1BFD-4985-AAE3-27B534DEB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1稼働画面開く" sheetId="1" r:id="rId1"/>
     <sheet name="No.2社員の自ら稼働情報登録" sheetId="5" r:id="rId2"/>
     <sheet name="No.3契約テーブルにデータを入れる" sheetId="4" r:id="rId3"/>
     <sheet name="No.4社員が請求書作成" sheetId="6" r:id="rId4"/>
+    <sheet name="計算結果の正しさ" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="262">
   <si>
     <t>employeeID</t>
   </si>
@@ -101,9 +102,6 @@
     <t>・定期券金額（１ヶ月）：6950</t>
   </si>
   <si>
-    <t>・出張交通費：0</t>
-  </si>
-  <si>
     <t>workinfoテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -219,12 +217,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>Nishikawaguchi</t>
-  </si>
-  <si>
-    <t>Nippori</t>
-  </si>
-  <si>
     <t>電車</t>
   </si>
   <si>
@@ -336,10 +328,6 @@
   </si>
   <si>
     <t>①自分のアカウント（e003@it-softtech.com)でEMSへログインする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・稼働時間：190</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -467,9 +455,6 @@
     <t>⑧「請求書生成」をクリックする。</t>
   </si>
   <si>
-    <t>⑨請求書生成してから、「請求書ダウンロード」をクリックする。</t>
-  </si>
-  <si>
     <t>claimID</t>
   </si>
   <si>
@@ -501,9 +486,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>CM00000002</t>
   </si>
   <si>
     <t>CM00000004</t>
@@ -533,29 +515,377 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>pdfファイルの内容確認</t>
+    <t>・出張交通費：500</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・稼働時間：210</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240910</t>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>会社B</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>20240101</t>
+  </si>
+  <si>
+    <t>20241231</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240901</t>
+  </si>
+  <si>
+    <t>20240930</t>
+  </si>
+  <si>
+    <t>20240829</t>
+  </si>
+  <si>
+    <t>202409</t>
+  </si>
+  <si>
+    <t>20240906</t>
+  </si>
+  <si>
+    <t>202410</t>
+  </si>
+  <si>
+    <t>20241001</t>
+  </si>
+  <si>
+    <t>20241031</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>nishikawa</t>
+  </si>
+  <si>
+    <t>無し</t>
+  </si>
+  <si>
+    <t>20230201</t>
+  </si>
+  <si>
+    <t>Umeda</t>
+  </si>
+  <si>
+    <t>Namba</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shibuya</t>
+  </si>
+  <si>
+    <t>Shinjuku</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Harajuku</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>companyType</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>basicContractDate</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>contractStatus</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Tech Innovators</t>
+  </si>
+  <si>
+    <t>2345678</t>
+  </si>
+  <si>
+    <t>456 Innovation Ave, Osaka</t>
+  </si>
+  <si>
+    <t>20240201</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>Hanako Suzuki</t>
+  </si>
+  <si>
+    <t>info@tech.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Green Solutions</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>789 Eco Blvd, Kyoto</t>
+  </si>
+  <si>
+    <t>20240301</t>
+  </si>
+  <si>
+    <t>0123987654</t>
+  </si>
+  <si>
+    <t>Kenji Nakamura</t>
+  </si>
+  <si>
+    <t>support@green.com</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑨請求書生成してから、「請求書ダウンロード」をクリックする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CM00000003</t>
+  </si>
+  <si>
+    <t>CM00000005</t>
+  </si>
+  <si>
+    <t>pdfファイルの内容</t>
     <rPh sb="8" eb="10">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①画面のデータ：</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>CM00000001</t>
+    <t>claim</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>CM00000002</t>
+    <t>②pdfファイルのデータ：</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>transport</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workinfo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240801</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>20240831</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>ソン</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>19990902</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2310851</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>07012344321</t>
+  </si>
+  <si>
+    <t>e001@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240530</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>20011022</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>e002@it-softtech.com</t>
+  </si>
+  <si>
+    <t>nguyen1</t>
+  </si>
+  <si>
+    <t>20240134</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240902</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +898,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -599,8 +930,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +948,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +1015,19 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,25 +1353,157 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>215265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1402F8CA-7A12-4015-BB52-84153B21A7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="9740265"/>
+          <a:ext cx="5570220" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FCA807-7344-42D6-B392-87E446254114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561974" y="13136880"/>
+          <a:ext cx="14443711" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>630554</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123317</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>174024</xdr:colOff>
+      <xdr:colOff>404953</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>168696</xdr:rowOff>
+      <xdr:rowOff>185802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B6598-33C6-2552-2D45-93EA82D86437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A331FE-BE3C-7261-BF86-1A801B2F1EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1024,8 +1519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297804" y="351917"/>
-          <a:ext cx="2884840" cy="4544989"/>
+          <a:off x="4991100" y="114300"/>
+          <a:ext cx="3460573" cy="4795902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,22 +1656,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
+      <xdr:colOff>63242</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>139516</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>400705</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>208630</xdr:rowOff>
+      <xdr:colOff>472439</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E15870C-C8F1-C1B1-1256-0F23331073AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A5679F-4E4E-AE45-135D-BBB3B3D12140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,146 +1687,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9361170" y="368116"/>
-          <a:ext cx="3037225" cy="4568724"/>
+          <a:off x="9451082" y="228600"/>
+          <a:ext cx="3091437" cy="4743202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1402F8CA-7A12-4015-BB52-84153B21A7BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="6943725"/>
-          <a:ext cx="5535930" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FCA807-7344-42D6-B392-87E446254114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523874" y="9220200"/>
-          <a:ext cx="14359891" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2065,13 +2428,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>365508</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>73794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2109,13 +2472,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>26895</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2175,13 +2538,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>385483</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>215152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>385483</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2231,13 +2594,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>43529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>73345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2275,14 +2638,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>358589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2297,8 +2660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403412" y="34012094"/>
-          <a:ext cx="11851341" cy="233082"/>
+          <a:off x="403412" y="34146565"/>
+          <a:ext cx="11851341" cy="896470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,225 +2702,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>209195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>579535</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>124764</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A469D942-4FE8-179E-411C-569FB74093E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="618564" y="38882936"/>
-          <a:ext cx="11390971" cy="1780228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>125507</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>20852</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BB71BA-C086-4486-A022-EB8D5F66ABA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="672353" y="34935459"/>
-          <a:ext cx="10883154" cy="3526052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>179296</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708B7F38-E58D-4CE0-A8B9-2F8CFBFCCF07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4778188" y="36611860"/>
-          <a:ext cx="1443318" cy="376518"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>154083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6970C716-6A73-4CB2-89FD-B2DE1E3E238C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5468470" y="36963165"/>
-          <a:ext cx="1" cy="1979517"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>546848</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>322730</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>206046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2574,7 +2727,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2595,13 +2748,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>645460</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>116543</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>97460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2618,7 +2771,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2639,13 +2792,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2705,13 +2858,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>502024</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2771,13 +2924,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>340660</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>188260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>125507</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2835,23 +2988,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>645459</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>467707</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249744</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>182106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4874FDFD-D971-936C-5D78-A69A040995F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605A978E-DA93-748C-C7D0-789399C4850E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="41022494"/>
+          <a:ext cx="6973273" cy="8106906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>268796</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>201159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03AA27E-19EF-F262-E311-72830E4DB161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,8 +3064,101 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645459" y="49628613"/>
-          <a:ext cx="7890483" cy="7494493"/>
+          <a:off x="8740588" y="41022494"/>
+          <a:ext cx="6992326" cy="8125959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8301FA9-0B9E-6514-4641-60FA965F1BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="462090"/>
+          <a:ext cx="13011698" cy="3815354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669152</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22623</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>100084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB826640-2E84-4956-8036-39062CE0DB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669152" y="20486274"/>
+          <a:ext cx="6749353" cy="7969175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,23 +3169,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175708</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>360382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411928</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46">
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F85692-0558-4003-B8AB-57270D629BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A72D351-16EE-2A62-164F-CE2A44F1907E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,18 +3193,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="403412" y="34012094"/>
-          <a:ext cx="11851341" cy="233082"/>
+          <a:off x="2865120" y="22906617"/>
+          <a:ext cx="908573" cy="489025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2937,6 +3222,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>worktime</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2945,23 +3234,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>403411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137608</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>202153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47">
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D648A9B-3F2C-CA18-3601-B95732687C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2984F0-5B3B-4001-AE9D-7C6974C1FF74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,18 +3258,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2680447" y="52945553"/>
-          <a:ext cx="4563035" cy="403412"/>
+          <a:off x="1918447" y="22949646"/>
+          <a:ext cx="908573" cy="489025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3003,6 +3287,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>claimMonth</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3011,23 +3299,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>233084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>62752</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657561</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>31826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48">
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C91DF72-824B-41F1-A869-A1573FB68AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F0B4F-93E9-4D10-AFA2-39D95EBE70FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,18 +3323,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="672352" y="49637578"/>
-          <a:ext cx="2752165" cy="753034"/>
+          <a:off x="869577" y="22779319"/>
+          <a:ext cx="1132690" cy="489025"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3069,6 +3352,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>employeeName</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3077,23 +3364,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>286871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>654423</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>71716</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49">
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADFEF0A-1313-4C29-826B-3B1896F3552E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7E9063-9518-5008-A5B7-378613E3558D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,18 +3388,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6517341" y="51313976"/>
-          <a:ext cx="860611" cy="242046"/>
+          <a:off x="3845859" y="22833106"/>
+          <a:ext cx="502023" cy="528918"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3135,6 +3416,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>exceTime</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3143,23 +3428,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292635</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>403410</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle 51">
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F378F-EB97-4368-B9AB-0A36117D5E08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F842E38C-90A0-4925-A32B-0085FD12A0CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,18 +3452,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3576917" y="52551106"/>
-          <a:ext cx="860611" cy="242046"/>
+          <a:off x="4326753" y="22250400"/>
+          <a:ext cx="684518" cy="997452"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3201,6 +3481,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>contract</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブルの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>price	</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3209,23 +3501,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>528918</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>217523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Rectangle 52">
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036CBBF4-2786-451F-B1E7-F771F7226FD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D929DF-A3A9-48A5-8905-4606AA04ED48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3233,18 +3525,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3218330" y="56244565"/>
-          <a:ext cx="860611" cy="242046"/>
+          <a:off x="5020235" y="22080071"/>
+          <a:ext cx="959224" cy="1140887"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3267,6 +3554,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(consumoTax+addpayOff+transport+businessTrip)-minusPayOff	</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3275,23 +3566,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>233083</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 53">
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D3FD5C-7A7E-4F07-9702-E9AD0736E0F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A45CE8-7261-479B-A275-3B793738040B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3299,16 +3590,83 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6320117" y="54890893"/>
-          <a:ext cx="860611" cy="564777"/>
+          <a:off x="5997388" y="22770353"/>
+          <a:ext cx="959224" cy="477499"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sum	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAD3B04-52EF-DE07-5294-76086E0BE0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53788" y="1936376"/>
+          <a:ext cx="13276729" cy="475130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="38100">
+        <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3653,12 +4011,12 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
@@ -3714,17 +4072,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3783,7 +4141,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
@@ -3838,32 +4196,32 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="36" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>1</v>
@@ -3874,25 +4232,25 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="F27" s="6">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
+      <c r="H27" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>6</v>
@@ -3900,471 +4258,1147 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6">
+        <v>190</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6">
+        <v>110</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="6">
+        <v>160</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6">
+        <v>199</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="36" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="6">
+        <v>230</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="6">
-        <v>199</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="6">
-        <v>160</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="6">
+        <v>190</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="6">
-        <v>199</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6">
+        <v>110</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="6">
-        <v>190</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>2</v>
+      <c r="I38" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="6">
+        <v>160</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6">
+        <v>199</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="6">
+        <v>210</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="6">
+        <v>9000</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>9000</v>
+      </c>
+      <c r="R45" s="6">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>900</v>
+      </c>
+      <c r="R46" s="6">
+        <v>0</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1600</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>850</v>
+      </c>
+      <c r="R47" s="6">
+        <v>0</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>1100</v>
+      </c>
+      <c r="R48" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>900</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="6">
+        <v>9000</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>9000</v>
+      </c>
+      <c r="R53" s="6">
+        <v>0</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>900</v>
+      </c>
+      <c r="R54" s="6">
+        <v>0</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1600</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>850</v>
+      </c>
+      <c r="R55" s="6">
+        <v>0</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>1100</v>
+      </c>
+      <c r="R56" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="F57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="6">
         <v>1000</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="2" t="s">
+      <c r="I57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>900</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B43" s="2" t="s">
+      <c r="U57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T43" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" s="6">
+        <v>6950</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>6950</v>
+      </c>
+      <c r="R58" s="6">
+        <v>500</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="6">
-        <v>6950</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>6950</v>
-      </c>
-      <c r="R44" s="6">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V44" s="5" t="s">
+      <c r="U58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V58" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4379,74 +5413,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897BA4-057F-4A51-A6E4-D7D7C2AF2A60}">
   <dimension ref="A2:AH83"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="54" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>5</v>
@@ -4460,66 +5504,318 @@
     </row>
     <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F7" s="6">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I7" s="6">
         <v>1300</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K7" s="6">
         <v>1500</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="F9" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>128</v>
+      <c r="R9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="54" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="2:34" ht="54" x14ac:dyDescent="0.45">
@@ -4527,94 +5823,94 @@
         <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="L82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="N82" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="O82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="P82" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="Q82" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O82" s="4" t="s">
+      <c r="R82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="S82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q82" s="4" t="s">
+      <c r="T82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R82" s="4" t="s">
+      <c r="U82" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S82" s="4" t="s">
+      <c r="V82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T82" s="4" t="s">
+      <c r="W82" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U82" s="4" t="s">
+      <c r="X82" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V82" s="4" t="s">
+      <c r="Y82" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="W82" s="4" t="s">
+      <c r="Z82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="X82" s="4" t="s">
+      <c r="AA82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="AB82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Z82" s="4" t="s">
+      <c r="AC82" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AA82" s="4" t="s">
+      <c r="AD82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AB82" s="4" t="s">
+      <c r="AE82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AC82" s="4" t="s">
+      <c r="AF82" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="AD82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE82" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF82" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="AG82" s="4" t="s">
         <v>1</v>
@@ -4628,10 +5924,10 @@
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E83" s="6">
         <v>300000</v>
@@ -4714,10 +6010,10 @@
         <v>3</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH83" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4728,506 +6024,2681 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AF215"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD146"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S214" sqref="S214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="273" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B273" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" ht="36" x14ac:dyDescent="0.45">
+      <c r="B274" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G274" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
+      <c r="H274" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B138" t="s">
+      <c r="I274" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L274" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M274" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N274" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O274" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P274" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q274" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R274" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="2:18" ht="36" x14ac:dyDescent="0.45">
+      <c r="B277" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K277" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L277" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M277" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N277" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O277" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P277" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R277" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B278" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="139" spans="2:18" ht="36" x14ac:dyDescent="0.45">
-      <c r="B139" s="4" t="s">
+      <c r="D278" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E278" s="6">
+        <v>230</v>
+      </c>
+      <c r="F278" s="6">
+        <v>30</v>
+      </c>
+      <c r="G278" s="6">
+        <v>45000</v>
+      </c>
+      <c r="H278" s="6">
+        <v>0</v>
+      </c>
+      <c r="I278" s="6">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6">
+        <v>9000</v>
+      </c>
+      <c r="K278" s="6">
+        <v>0</v>
+      </c>
+      <c r="L278" s="6">
+        <v>10</v>
+      </c>
+      <c r="M278" s="6">
+        <v>26500</v>
+      </c>
+      <c r="N278" s="6">
+        <v>300500</v>
+      </c>
+      <c r="O278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P278" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B279" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E279" s="6">
+        <v>110</v>
+      </c>
+      <c r="F279" s="6">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6">
+        <v>40</v>
+      </c>
+      <c r="I279" s="6">
+        <v>52000</v>
+      </c>
+      <c r="J279" s="6">
+        <v>900</v>
+      </c>
+      <c r="K279" s="6">
+        <v>0</v>
+      </c>
+      <c r="L279" s="6">
+        <v>10</v>
+      </c>
+      <c r="M279" s="6">
+        <v>19800</v>
+      </c>
+      <c r="N279" s="6">
+        <v>218700</v>
+      </c>
+      <c r="O279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P279" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R279" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B280" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E280" s="6">
+        <v>210</v>
+      </c>
+      <c r="F280" s="6">
+        <v>10</v>
+      </c>
+      <c r="G280" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H280" s="6">
+        <v>0</v>
+      </c>
+      <c r="I280" s="6">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6">
+        <v>6950</v>
+      </c>
+      <c r="K280" s="6">
+        <v>500</v>
+      </c>
+      <c r="L280" s="6">
+        <v>10</v>
+      </c>
+      <c r="M280" s="6">
+        <v>26500</v>
+      </c>
+      <c r="N280" s="6">
+        <v>298950</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P280" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q280" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC27EA-D4CB-4051-9AC2-B4E1BF232B45}">
+  <dimension ref="A1:AG97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="J23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8">
+        <v>230</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>45000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>10</v>
+      </c>
+      <c r="M24" s="8">
+        <v>26500</v>
+      </c>
+      <c r="N24" s="8">
+        <v>300500</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6">
+        <v>110</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>40</v>
+      </c>
+      <c r="I25" s="6">
+        <v>52000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>900</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>10</v>
+      </c>
+      <c r="M25" s="6">
+        <v>19800</v>
+      </c>
+      <c r="N25" s="6">
+        <v>218700</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6">
+        <v>210</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6950</v>
+      </c>
+      <c r="K26" s="6">
+        <v>500</v>
+      </c>
+      <c r="L26" s="6">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6">
+        <v>26500</v>
+      </c>
+      <c r="N26" s="6">
+        <v>298950</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9000</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>9000</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>900</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1600</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>850</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1100</v>
+      </c>
+      <c r="R36" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>900</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6950</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>6950</v>
+      </c>
+      <c r="R38" s="6">
+        <v>500</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>9000</v>
+      </c>
+      <c r="R39" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="8">
+        <v>220000</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1300</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="54" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B50" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B55" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="8">
+        <v>230</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6">
+        <v>190</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="6">
+        <v>110</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="6">
+        <v>160</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="6">
+        <v>199</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="6">
+        <v>210</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="6">
+        <v>190</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="6">
+        <v>199</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="36" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N80" t="s">
+        <v>216</v>
+      </c>
+      <c r="O80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="14:33" ht="36" x14ac:dyDescent="0.45">
+      <c r="O81" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y81" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="Z81" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC81" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O82" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R82" s="8">
+        <v>230</v>
+      </c>
+      <c r="S82" s="8">
         <v>30</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I139" s="4" t="s">
+      <c r="T82" s="8">
+        <v>45000</v>
+      </c>
+      <c r="U82" s="8">
+        <v>0</v>
+      </c>
+      <c r="V82" s="8">
+        <v>0</v>
+      </c>
+      <c r="W82" s="8">
+        <v>9000</v>
+      </c>
+      <c r="X82" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="8">
+        <v>10</v>
+      </c>
+      <c r="Z82" s="8">
+        <v>26500</v>
+      </c>
+      <c r="AA82" s="8">
+        <v>300500</v>
+      </c>
+      <c r="AB82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC82" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L139" s="4" t="s">
+      <c r="AD82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE82" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M139" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O139" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P139" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q139" s="4" t="s">
+      <c r="P83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R83" s="6">
+        <v>110</v>
+      </c>
+      <c r="S83" s="6">
+        <v>0</v>
+      </c>
+      <c r="T83" s="6">
+        <v>0</v>
+      </c>
+      <c r="U83" s="6">
+        <v>40</v>
+      </c>
+      <c r="V83" s="6">
+        <v>52000</v>
+      </c>
+      <c r="W83" s="6">
+        <v>900</v>
+      </c>
+      <c r="X83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z83" s="6">
+        <v>19800</v>
+      </c>
+      <c r="AA83" s="6">
+        <v>218700</v>
+      </c>
+      <c r="AB83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE83" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O84" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R84" s="6">
+        <v>210</v>
+      </c>
+      <c r="S84" s="6">
+        <v>10</v>
+      </c>
+      <c r="T84" s="6">
+        <v>15000</v>
+      </c>
+      <c r="U84" s="6">
+        <v>0</v>
+      </c>
+      <c r="V84" s="6">
+        <v>0</v>
+      </c>
+      <c r="W84" s="6">
+        <v>6950</v>
+      </c>
+      <c r="X84" s="6">
+        <v>500</v>
+      </c>
+      <c r="Y84" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z84" s="6">
+        <v>26500</v>
+      </c>
+      <c r="AA84" s="6">
+        <v>298950</v>
+      </c>
+      <c r="AB84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="N87" t="s">
+        <v>216</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="14:33" ht="36" x14ac:dyDescent="0.45">
+      <c r="O88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R139" s="4" t="s">
+      <c r="AE88" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B140" s="2" t="s">
+      <c r="AF88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG89" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG90" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA91" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG91" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="N93" t="s">
+        <v>216</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="14:33" ht="54" x14ac:dyDescent="0.45">
+      <c r="O94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA94" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG94" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O95" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="R95" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="S95" s="8">
+        <v>220000</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U95" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95" s="8">
+        <v>1300</v>
+      </c>
+      <c r="W95" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X95" s="8">
+        <v>1500</v>
+      </c>
+      <c r="Y95" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="6">
+      <c r="Z95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG95" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="14:33" x14ac:dyDescent="0.45">
+      <c r="O96" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S96" s="6">
+        <v>250000</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V96" s="6">
+        <v>1300</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X96" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD96" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F140" s="6">
-        <v>15</v>
-      </c>
-      <c r="G140" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H140" s="6">
-        <v>0</v>
-      </c>
-      <c r="I140" s="6">
-        <v>0</v>
-      </c>
-      <c r="J140" s="6">
-        <v>2100</v>
-      </c>
-      <c r="K140" s="6">
-        <v>1100</v>
-      </c>
-      <c r="L140" s="6">
-        <v>10</v>
-      </c>
-      <c r="M140" s="6">
-        <v>210</v>
-      </c>
-      <c r="N140" s="6">
-        <v>23000</v>
-      </c>
-      <c r="O140" s="6">
-        <v>1200</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q140" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R140" s="2" t="s">
+      <c r="AE96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="15:33" x14ac:dyDescent="0.45">
+      <c r="O97" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="2:18" ht="36" x14ac:dyDescent="0.45">
-      <c r="B143" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M143" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N143" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P143" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q143" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R143" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B144" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="6">
-        <v>160</v>
-      </c>
-      <c r="F144" s="6">
-        <v>15</v>
-      </c>
-      <c r="G144" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H144" s="6">
-        <v>0</v>
-      </c>
-      <c r="I144" s="6">
-        <v>0</v>
-      </c>
-      <c r="J144" s="6">
-        <v>2100</v>
-      </c>
-      <c r="K144" s="6">
-        <v>1100</v>
-      </c>
-      <c r="L144" s="6">
-        <v>10</v>
-      </c>
-      <c r="M144" s="6">
-        <v>210</v>
-      </c>
-      <c r="N144" s="6">
-        <v>23000</v>
-      </c>
-      <c r="O144" s="6">
-        <v>1200</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q144" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R144" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B145" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="6">
-        <v>190</v>
-      </c>
-      <c r="F145" s="6">
-        <v>0</v>
-      </c>
-      <c r="G145" s="6">
-        <v>0</v>
-      </c>
-      <c r="H145" s="6">
-        <v>0</v>
-      </c>
-      <c r="I145" s="6">
-        <v>0</v>
-      </c>
-      <c r="J145" s="6">
-        <v>6950</v>
-      </c>
-      <c r="K145" s="6">
-        <v>0</v>
-      </c>
-      <c r="L145" s="6">
-        <v>10</v>
-      </c>
-      <c r="M145" s="6">
-        <v>25000</v>
-      </c>
-      <c r="N145" s="6">
-        <v>281950</v>
-      </c>
-      <c r="O145" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q145" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R145" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B147" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B176" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="210" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B210" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="212" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="P212" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="213" spans="2:32" ht="36" x14ac:dyDescent="0.45">
-      <c r="P213" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q213" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R213" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S213" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T213" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U213" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="V213" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="W213" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="X213" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y213" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z213" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA213" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB213" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC213" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD213" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE213" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF213" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="P214" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q214" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R214" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S214" s="6">
-        <v>160</v>
-      </c>
-      <c r="T214" s="6">
-        <v>15</v>
-      </c>
-      <c r="U214" s="6">
-        <v>6000</v>
-      </c>
-      <c r="V214" s="6">
-        <v>0</v>
-      </c>
-      <c r="W214" s="6">
-        <v>0</v>
-      </c>
-      <c r="X214" s="6">
-        <v>2100</v>
-      </c>
-      <c r="Y214" s="6">
-        <v>1100</v>
-      </c>
-      <c r="Z214" s="6">
-        <v>10</v>
-      </c>
-      <c r="AA214" s="6">
-        <v>210</v>
-      </c>
-      <c r="AB214" s="6">
-        <v>23000</v>
-      </c>
-      <c r="AC214" s="6">
-        <v>1200</v>
-      </c>
-      <c r="AD214" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE214" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF214" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="215" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="P215" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q215" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R215" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S215" s="6">
-        <v>190</v>
-      </c>
-      <c r="T215" s="6">
-        <v>0</v>
-      </c>
-      <c r="U215" s="6">
-        <v>0</v>
-      </c>
-      <c r="V215" s="6">
-        <v>0</v>
-      </c>
-      <c r="W215" s="6">
-        <v>0</v>
-      </c>
-      <c r="X215" s="6">
-        <v>6950</v>
-      </c>
-      <c r="Y215" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z215" s="6">
-        <v>10</v>
-      </c>
-      <c r="AA215" s="6">
-        <v>25000</v>
-      </c>
-      <c r="AB215" s="6">
-        <v>281950</v>
-      </c>
-      <c r="AC215" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD215" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE215" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF215" s="5" t="s">
-        <v>6</v>
+      <c r="P97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S97" s="6">
+        <v>250000</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V97" s="6">
+        <v>1300</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X97" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG97" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_自動請求.xlsx
+++ b/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_自動請求.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\総合テスト_エビデンス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/総合テスト/総合テスト_エビデンス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83693CF6-1BFD-4985-AAE3-27B534DEB86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C96FF2-976B-5D48-A840-9A13584FF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="5" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
     <sheet name="No.1稼働画面開く" sheetId="1" r:id="rId1"/>
     <sheet name="No.2社員の自ら稼働情報登録" sheetId="5" r:id="rId2"/>
     <sheet name="No.3契約テーブルにデータを入れる" sheetId="4" r:id="rId3"/>
-    <sheet name="No.4社員が請求書作成" sheetId="6" r:id="rId4"/>
-    <sheet name="計算結果の正しさ" sheetId="7" r:id="rId5"/>
+    <sheet name="計算結果の正しさ" sheetId="7" r:id="rId4"/>
+    <sheet name="No.4社員が請求書作成" sheetId="6" r:id="rId5"/>
+    <sheet name="再テスト" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="320">
   <si>
     <t>employeeID</t>
   </si>
@@ -880,16 +881,206 @@
   <si>
     <t>20240902</t>
   </si>
+  <si>
+    <t>手動でテーブルにデータを挿入する</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>社員１</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>社員２</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>社員３</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN0001</t>
+  </si>
+  <si>
+    <t>/timesheet/E001/202501.xlsx</t>
+  </si>
+  <si>
+    <t>CN0002</t>
+  </si>
+  <si>
+    <t>/timesheet/E002/202501.xlsx</t>
+  </si>
+  <si>
+    <t>CN0003</t>
+  </si>
+  <si>
+    <t>/timesheet/E003/202501.xlsx</t>
+  </si>
+  <si>
+    <t>contractID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>木の葉隠れの里株式会社</t>
+  </si>
+  <si>
+    <t>横浜市西区</t>
+  </si>
+  <si>
+    <t>火影綱手</t>
+  </si>
+  <si>
+    <t>aaa@gmail.com</t>
+  </si>
+  <si>
+    <t>霧隠れの里株式会社</t>
+  </si>
+  <si>
+    <t>水影照美冥</t>
+  </si>
+  <si>
+    <t>bbb@gmail.com</t>
+  </si>
+  <si>
+    <t>岩隠れの里株式会社</t>
+  </si>
+  <si>
+    <t>土影大野木</t>
+  </si>
+  <si>
+    <t>ccc@gmail.com</t>
+  </si>
+  <si>
+    <t>companyID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約情報 E001-C001</t>
+  </si>
+  <si>
+    <t>/path/to/E001/2025/time-report</t>
+  </si>
+  <si>
+    <t>請求書_E001_C001</t>
+  </si>
+  <si>
+    <t>契約情報 E002-C002</t>
+  </si>
+  <si>
+    <t>/path/to/E002/2025/time-report</t>
+  </si>
+  <si>
+    <t>請求書_E002_C002</t>
+  </si>
+  <si>
+    <t>契約情報 E003-C003</t>
+  </si>
+  <si>
+    <t>/path/to/E003/2025/time-report</t>
+  </si>
+  <si>
+    <t>請求書_E003_C003</t>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMSMのページにログインして、自動リクエストボタンをクリックする</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求月を入力して、状況確認ボタンをクリックする</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横浜駅</t>
+  </si>
+  <si>
+    <t>東京駅</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>菊名駅</t>
+  </si>
+  <si>
+    <t>E001trip.pdf</t>
+  </si>
+  <si>
+    <t>品川駅</t>
+  </si>
+  <si>
+    <t>E002trip.pdf</t>
+  </si>
+  <si>
+    <t>E003trip.pdf</t>
+  </si>
+  <si>
+    <t>請求書生成ボタンをクリックする</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求月を入力して、検索ボタンをクリックする</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>請求書ダウンロードボタンをクリックする</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM00000001</t>
+  </si>
+  <si>
+    <t>CM00000002</t>
+  </si>
+  <si>
+    <t>claimID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -898,7 +1089,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -908,7 +1099,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -917,7 +1108,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -925,7 +1116,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7F878F"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -935,10 +1126,51 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,8 +1195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -994,11 +1232,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1029,9 +1282,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1701,6 +1965,629 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>263438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8301FA9-0B9E-6514-4641-60FA965F1BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="462090"/>
+          <a:ext cx="13011698" cy="3815354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>669152</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22623</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>100084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB826640-2E84-4956-8036-39062CE0DB89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669152" y="20486274"/>
+          <a:ext cx="6749353" cy="7969175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175708</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>360382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411928</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A72D351-16EE-2A62-164F-CE2A44F1907E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865120" y="22906617"/>
+          <a:ext cx="908573" cy="489025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>worktime</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>403411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137608</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>202153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2984F0-5B3B-4001-AE9D-7C6974C1FF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1918447" y="22949646"/>
+          <a:ext cx="908573" cy="489025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>claimMonth</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>233084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657561</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>31826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F0B4F-93E9-4D10-AFA2-39D95EBE70FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869577" y="22779319"/>
+          <a:ext cx="1132690" cy="489025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>employeeName</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>286871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7E9063-9518-5008-A5B7-378613E3558D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3845859" y="22833106"/>
+          <a:ext cx="502023" cy="528918"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>exceTime</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292635</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F842E38C-90A0-4925-A32B-0085FD12A0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4326753" y="22250400"/>
+          <a:ext cx="684518" cy="997452"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>contract</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブルの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>price	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>217523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D929DF-A3A9-48A5-8905-4606AA04ED48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5020235" y="22080071"/>
+          <a:ext cx="959224" cy="1140887"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(consumoTax+addpayOff+transport+businessTrip)-minusPayOff	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233083</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>11334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A45CE8-7261-479B-A275-3B793738040B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5997388" y="22770353"/>
+          <a:ext cx="959224" cy="477499"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sum	</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAD3B04-52EF-DE07-5294-76086E0BE0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53788" y="1936376"/>
+          <a:ext cx="13276729" cy="475130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3077,27 +3964,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4890</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>263438</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162644</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>33019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8301FA9-0B9E-6514-4641-60FA965F1BF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3D62FE-8A8D-B2E5-90DD-D0606E51F104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,8 +4000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="462090"/>
-          <a:ext cx="13011698" cy="3815354"/>
+          <a:off x="1130300" y="7289799"/>
+          <a:ext cx="17404080" cy="7843520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3125,23 +4012,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>669152</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>28815</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>22623</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>100084</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB826640-2E84-4956-8036-39062CE0DB89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30883FF9-8BA0-0B1A-7B05-72E82A8CC3A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,8 +4044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="669152" y="20486274"/>
-          <a:ext cx="6749353" cy="7969175"/>
+          <a:off x="1130300" y="17716500"/>
+          <a:ext cx="17454880" cy="6878320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,543 +4054,277 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>175708</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>360382</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>411928</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>159124</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A72D351-16EE-2A62-164F-CE2A44F1907E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C15640D-1A27-9389-994A-1BC32F24491A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2865120" y="22906617"/>
-          <a:ext cx="908573" cy="489025"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>worktime</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>573741</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>403411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137608</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>202153</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2984F0-5B3B-4001-AE9D-7C6974C1FF74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1918447" y="22949646"/>
-          <a:ext cx="908573" cy="489025"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>claimMonth</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>233084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>657561</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>31826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F0B4F-93E9-4D10-AFA2-39D95EBE70FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="869577" y="22779319"/>
-          <a:ext cx="1132690" cy="489025"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>employeeName</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>484094</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>286871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7E9063-9518-5008-A5B7-378613E3558D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3845859" y="22833106"/>
-          <a:ext cx="502023" cy="528918"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>exceTime</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>292635</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>11334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F842E38C-90A0-4925-A32B-0085FD12A0CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4326753" y="22250400"/>
-          <a:ext cx="684518" cy="997452"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>contract</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブルの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>price	</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>217523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D929DF-A3A9-48A5-8905-4606AA04ED48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5020235" y="22080071"/>
-          <a:ext cx="959224" cy="1140887"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(consumoTax+addpayOff+transport+businessTrip)-minusPayOff	</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618564</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>233083</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>11334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A45CE8-7261-479B-A275-3B793738040B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5997388" y="22770353"/>
-          <a:ext cx="959224" cy="477499"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>sum	</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>555811</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAD3B04-52EF-DE07-5294-76086E0BE0E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53788" y="1936376"/>
-          <a:ext cx="13276729" cy="475130"/>
+          <a:off x="1130300" y="25565100"/>
+          <a:ext cx="17373600" cy="6664960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6E2B36-DE29-4F8B-7004-090F9F31B773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="33032700"/>
+          <a:ext cx="17475200" cy="6238240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>378460</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>71119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E9B203-54A3-0888-14F3-B5D37335EB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="40119299"/>
+          <a:ext cx="17332960" cy="6167120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35406D5-4118-7EFA-7916-992F5D048D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="46596299"/>
+          <a:ext cx="11620500" cy="7246620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE31CC4-B2AB-C198-D533-FDDBA2E3CCB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="55638699"/>
+          <a:ext cx="11452860" cy="6530340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F91C14C-0BDD-21A5-E693-DD97B51B4993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="62496700"/>
+          <a:ext cx="11551920" cy="6728460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3741,7 +4362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3847,7 +4468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3989,7 +4610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4003,28 +4624,28 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4057,7 +4678,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
@@ -4078,15 +4699,15 @@
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="12" customHeight="1"/>
+    <row r="3" spans="1:34">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -4124,87 +4745,87 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34">
       <c r="B7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34">
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34">
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34">
       <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34">
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34">
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34">
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34">
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32">
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
@@ -4230,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9">
       <c r="B27" s="2" t="s">
         <v>151</v>
       </c>
@@ -4256,7 +4877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9">
       <c r="B28" s="2" t="s">
         <v>158</v>
       </c>
@@ -4282,7 +4903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9">
       <c r="B29" s="2" t="s">
         <v>158</v>
       </c>
@@ -4308,7 +4929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -4334,7 +4955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9">
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -4360,12 +4981,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:22">
       <c r="B33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="36" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:22" ht="32">
       <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
@@ -4391,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:22">
       <c r="B36" s="2" t="s">
         <v>151</v>
       </c>
@@ -4417,7 +5038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:22">
       <c r="B37" s="2" t="s">
         <v>158</v>
       </c>
@@ -4443,7 +5064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:22">
       <c r="B38" s="2" t="s">
         <v>158</v>
       </c>
@@ -4469,7 +5090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:22">
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
@@ -4495,7 +5116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:22">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -4521,7 +5142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:22">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -4547,12 +5168,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:22">
       <c r="B43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:22" ht="48">
       <c r="B44" s="4" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:22">
       <c r="B45" s="2" t="s">
         <v>153</v>
       </c>
@@ -4682,7 +5303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:22">
       <c r="B46" s="2" t="s">
         <v>159</v>
       </c>
@@ -4747,7 +5368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:22">
       <c r="B47" s="2" t="s">
         <v>159</v>
       </c>
@@ -4812,7 +5433,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:22">
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
@@ -4877,7 +5498,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:22">
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
@@ -4942,12 +5563,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:22">
       <c r="B51" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:22" ht="48">
       <c r="B52" s="4" t="s">
         <v>0</v>
       </c>
@@ -5012,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:22">
       <c r="B53" s="2" t="s">
         <v>153</v>
       </c>
@@ -5077,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:22">
       <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
@@ -5142,7 +5763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:22">
       <c r="B55" s="2" t="s">
         <v>159</v>
       </c>
@@ -5207,7 +5828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:22">
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
@@ -5272,7 +5893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:22">
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
@@ -5337,7 +5958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:22">
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
@@ -5417,25 +6038,25 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="12" customHeight="1"/>
+    <row r="4" spans="1:20">
       <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>161</v>
       </c>
@@ -5443,7 +6064,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="54" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="32">
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
@@ -5502,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20">
       <c r="B7" s="2" t="s">
         <v>151</v>
       </c>
@@ -5561,7 +6182,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20">
       <c r="B8" s="2" t="s">
         <v>158</v>
       </c>
@@ -5620,7 +6241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -5679,10 +6300,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -5690,7 +6311,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="54" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="32">
       <c r="B13" s="4" t="s">
         <v>104</v>
       </c>
@@ -5731,7 +6352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20">
       <c r="B14" s="2" t="s">
         <v>154</v>
       </c>
@@ -5772,7 +6393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20">
       <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
@@ -5813,12 +6434,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:34" ht="48">
       <c r="B82" s="4" t="s">
         <v>0</v>
       </c>
@@ -5919,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:34">
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
@@ -6023,338 +6644,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R280"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC27EA-D4CB-4051-9AC2-B4E1BF232B45}">
+  <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S214" sqref="S214"/>
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B175" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B273" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="274" spans="2:18" ht="36" x14ac:dyDescent="0.45">
-      <c r="B274" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="32">
+      <c r="B23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C274" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D274" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E274" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G274" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H274" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I274" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J274" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K274" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L274" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M274" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N274" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O274" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P274" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q274" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R274" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B276" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="277" spans="2:18" ht="36" x14ac:dyDescent="0.45">
-      <c r="B277" s="4" t="s">
+    <row r="24" spans="1:22">
+      <c r="B24" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8">
+        <v>230</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>45000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>10</v>
+      </c>
+      <c r="M24" s="8">
+        <v>26500</v>
+      </c>
+      <c r="N24" s="8">
+        <v>300500</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="B25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6">
+        <v>110</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>40</v>
+      </c>
+      <c r="I25" s="6">
+        <v>52000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>900</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>10</v>
+      </c>
+      <c r="M25" s="6">
+        <v>19800</v>
+      </c>
+      <c r="N25" s="6">
+        <v>218700</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6">
+        <v>210</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6950</v>
+      </c>
+      <c r="K26" s="6">
+        <v>500</v>
+      </c>
+      <c r="L26" s="6">
+        <v>10</v>
+      </c>
+      <c r="M26" s="6">
+        <v>26500</v>
+      </c>
+      <c r="N26" s="6">
+        <v>298950</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="48">
+      <c r="B32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="B33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9000</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>9000</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>900</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1600</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>850</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2100</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1100</v>
+      </c>
+      <c r="R36" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>900</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6950</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>6950</v>
+      </c>
+      <c r="R38" s="6">
+        <v>500</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="B39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>9000</v>
+      </c>
+      <c r="R39" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="32">
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="B44" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="8">
+        <v>220000</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1300</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="B45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="32">
+      <c r="B49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="B50" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="32">
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="B55" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F55" s="8">
+        <v>230</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="B56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="6">
+        <v>190</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="B57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="6">
+        <v>110</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="6">
+        <v>160</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="6">
+        <v>199</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="B60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="6">
+        <v>210</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="6">
+        <v>190</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="6">
+        <v>199</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="32">
+      <c r="B65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="B66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="N80" t="s">
+        <v>216</v>
+      </c>
+      <c r="O80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="14:33" ht="32">
+      <c r="O81" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="P81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="Q81" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="R81" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F277" s="4" t="s">
+      <c r="S81" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G277" s="4" t="s">
+      <c r="T81" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H277" s="4" t="s">
+      <c r="U81" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I277" s="4" t="s">
+      <c r="V81" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J277" s="4" t="s">
+      <c r="W81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K277" s="4" t="s">
+      <c r="X81" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L277" s="4" t="s">
+      <c r="Y81" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M277" s="4" t="s">
+      <c r="Z81" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N277" s="4" t="s">
+      <c r="AA81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O277" s="4" t="s">
+      <c r="AB81" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P277" s="4" t="s">
+      <c r="AC81" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q277" s="4" t="s">
+      <c r="AD81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R277" s="4" t="s">
+      <c r="AE81" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B278" s="2" t="s">
+    <row r="82" spans="14:33">
+      <c r="O82" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="P82" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="Q82" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E278" s="6">
+      <c r="R82" s="8">
         <v>230</v>
       </c>
-      <c r="F278" s="6">
+      <c r="S82" s="8">
         <v>30</v>
       </c>
-      <c r="G278" s="6">
+      <c r="T82" s="8">
         <v>45000</v>
       </c>
-      <c r="H278" s="6">
+      <c r="U82" s="8">
         <v>0</v>
       </c>
-      <c r="I278" s="6">
+      <c r="V82" s="8">
         <v>0</v>
       </c>
-      <c r="J278" s="6">
+      <c r="W82" s="8">
         <v>9000</v>
       </c>
-      <c r="K278" s="6">
+      <c r="X82" s="8">
         <v>0</v>
       </c>
-      <c r="L278" s="6">
+      <c r="Y82" s="8">
         <v>10</v>
       </c>
-      <c r="M278" s="6">
+      <c r="Z82" s="8">
         <v>26500</v>
       </c>
-      <c r="N278" s="6">
+      <c r="AA82" s="8">
         <v>300500</v>
       </c>
-      <c r="O278" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P278" s="2" t="s">
+      <c r="AB82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC82" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q278" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R278" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B279" s="2" t="s">
+      <c r="AD82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE82" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="14:33">
+      <c r="O83" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="P83" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="Q83" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E279" s="6">
+      <c r="R83" s="6">
         <v>110</v>
       </c>
-      <c r="F279" s="6">
+      <c r="S83" s="6">
         <v>0</v>
       </c>
-      <c r="G279" s="6">
+      <c r="T83" s="6">
         <v>0</v>
       </c>
-      <c r="H279" s="6">
+      <c r="U83" s="6">
         <v>40</v>
       </c>
-      <c r="I279" s="6">
+      <c r="V83" s="6">
         <v>52000</v>
       </c>
-      <c r="J279" s="6">
+      <c r="W83" s="6">
         <v>900</v>
       </c>
-      <c r="K279" s="6">
+      <c r="X83" s="6">
         <v>0</v>
       </c>
-      <c r="L279" s="6">
+      <c r="Y83" s="6">
         <v>10</v>
       </c>
-      <c r="M279" s="6">
+      <c r="Z83" s="6">
         <v>19800</v>
       </c>
-      <c r="N279" s="6">
+      <c r="AA83" s="6">
         <v>218700</v>
       </c>
-      <c r="O279" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P279" s="2" t="s">
+      <c r="AB83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q279" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R279" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="2:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B280" s="2" t="s">
+      <c r="AD83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE83" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="14:33">
+      <c r="O84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="P84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="Q84" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E280" s="6">
+      <c r="R84" s="6">
         <v>210</v>
       </c>
-      <c r="F280" s="6">
+      <c r="S84" s="6">
         <v>10</v>
       </c>
-      <c r="G280" s="6">
+      <c r="T84" s="6">
         <v>15000</v>
       </c>
-      <c r="H280" s="6">
+      <c r="U84" s="6">
         <v>0</v>
       </c>
-      <c r="I280" s="6">
+      <c r="V84" s="6">
         <v>0</v>
       </c>
-      <c r="J280" s="6">
+      <c r="W84" s="6">
         <v>6950</v>
       </c>
-      <c r="K280" s="6">
+      <c r="X84" s="6">
         <v>500</v>
       </c>
-      <c r="L280" s="6">
+      <c r="Y84" s="6">
         <v>10</v>
       </c>
-      <c r="M280" s="6">
+      <c r="Z84" s="6">
         <v>26500</v>
       </c>
-      <c r="N280" s="6">
+      <c r="AA84" s="6">
         <v>298950</v>
       </c>
-      <c r="O280" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P280" s="2" t="s">
+      <c r="AB84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q280" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R280" s="5" t="s">
-        <v>6</v>
+      <c r="AD84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="14:33">
+      <c r="N87" t="s">
+        <v>216</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="14:33" ht="32">
+      <c r="O88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF88" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="14:33">
+      <c r="O89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG89" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="14:33">
+      <c r="O90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG90" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="14:33">
+      <c r="O91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA91" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD91" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG91" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="14:33">
+      <c r="N93" t="s">
+        <v>216</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="14:33" ht="32">
+      <c r="O94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA94" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG94" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="14:33">
+      <c r="O95" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="R95" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="S95" s="8">
+        <v>220000</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U95" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95" s="8">
+        <v>1300</v>
+      </c>
+      <c r="W95" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X95" s="8">
+        <v>1500</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG95" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="14:33">
+      <c r="O96" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S96" s="6">
+        <v>250000</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V96" s="6">
+        <v>1300</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X96" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="15:33">
+      <c r="O97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S97" s="6">
+        <v>250000</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V97" s="6">
+        <v>1300</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X97" s="6">
+        <v>1500</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG97" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6365,2340 +8988,336 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC27EA-D4CB-4051-9AC2-B4E1BF232B45}">
-  <dimension ref="A1:AG97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="36" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="273" spans="2:18">
+      <c r="B273" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" ht="32">
+      <c r="B274" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C274" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D274" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E274" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F274" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G274" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H274" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I274" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J274" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K274" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L274" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M274" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N274" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O274" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P274" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q274" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R274" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B24" s="9" t="s">
+    <row r="276" spans="2:18">
+      <c r="B276" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="2:18" ht="32">
+      <c r="B277" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H277" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K277" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L277" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M277" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N277" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O277" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P277" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q277" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R277" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="2:18">
+      <c r="B278" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C278" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D278" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E278" s="6">
         <v>230</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F278" s="6">
         <v>30</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G278" s="6">
         <v>45000</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H278" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I278" s="6">
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J278" s="6">
         <v>9000</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K278" s="6">
         <v>0</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L278" s="6">
         <v>10</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M278" s="6">
         <v>26500</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N278" s="6">
         <v>300500</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="O278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P278" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B25" s="2" t="s">
+      <c r="Q278" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:18">
+      <c r="B279" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C279" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D279" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E279" s="6">
         <v>110</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F279" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G279" s="6">
         <v>0</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H279" s="6">
         <v>40</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I279" s="6">
         <v>52000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J279" s="6">
         <v>900</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K279" s="6">
         <v>0</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L279" s="6">
         <v>10</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M279" s="6">
         <v>19800</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N279" s="6">
         <v>218700</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="O279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P279" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
+      <c r="Q279" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R279" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18" ht="17.5" customHeight="1">
+      <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D280" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E280" s="6">
         <v>210</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F280" s="6">
         <v>10</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G280" s="6">
         <v>15000</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H280" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I280" s="6">
         <v>0</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J280" s="6">
         <v>6950</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K280" s="6">
         <v>500</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L280" s="6">
         <v>10</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M280" s="6">
         <v>26500</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N280" s="6">
         <v>298950</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="2" t="s">
+      <c r="O280" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P280" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="6">
-        <v>9000</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="8">
-        <v>9000</v>
-      </c>
-      <c r="R33" s="8">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" s="6">
-        <v>2100</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>900</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1600</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>850</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="6">
-        <v>2100</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>1100</v>
-      </c>
-      <c r="R36" s="6">
-        <v>2000</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>900</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H38" s="6">
-        <v>6950</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>6950</v>
-      </c>
-      <c r="R38" s="6">
-        <v>500</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>9000</v>
-      </c>
-      <c r="R39" s="6">
-        <v>2000</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B44" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="8">
-        <v>220000</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="8">
-        <v>1300</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K44" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" s="6">
-        <v>250000</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="6">
-        <v>1300</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="6">
-        <v>250000</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1300</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K46" s="6">
-        <v>1500</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="54" x14ac:dyDescent="0.45">
-      <c r="B49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B50" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="36" x14ac:dyDescent="0.45">
-      <c r="B54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B55" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" s="8">
-        <v>230</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B56" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="6">
-        <v>190</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="6">
-        <v>110</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" s="6">
-        <v>160</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="6">
-        <v>199</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="6">
-        <v>210</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="6">
-        <v>190</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="6">
-        <v>199</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="36" x14ac:dyDescent="0.45">
-      <c r="B65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="T65" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B66" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="N80" t="s">
-        <v>216</v>
-      </c>
-      <c r="O80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="14:33" ht="36" x14ac:dyDescent="0.45">
-      <c r="O81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="R81" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S81" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X81" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y81" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB81" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD81" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE81" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O82" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="P82" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q82" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R82" s="8">
-        <v>230</v>
-      </c>
-      <c r="S82" s="8">
-        <v>30</v>
-      </c>
-      <c r="T82" s="8">
-        <v>45000</v>
-      </c>
-      <c r="U82" s="8">
-        <v>0</v>
-      </c>
-      <c r="V82" s="8">
-        <v>0</v>
-      </c>
-      <c r="W82" s="8">
-        <v>9000</v>
-      </c>
-      <c r="X82" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z82" s="8">
-        <v>26500</v>
-      </c>
-      <c r="AA82" s="8">
-        <v>300500</v>
-      </c>
-      <c r="AB82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC82" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE82" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R83" s="6">
-        <v>110</v>
-      </c>
-      <c r="S83" s="6">
-        <v>0</v>
-      </c>
-      <c r="T83" s="6">
-        <v>0</v>
-      </c>
-      <c r="U83" s="6">
-        <v>40</v>
-      </c>
-      <c r="V83" s="6">
-        <v>52000</v>
-      </c>
-      <c r="W83" s="6">
-        <v>900</v>
-      </c>
-      <c r="X83" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z83" s="6">
-        <v>19800</v>
-      </c>
-      <c r="AA83" s="6">
-        <v>218700</v>
-      </c>
-      <c r="AB83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE83" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O84" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R84" s="6">
-        <v>210</v>
-      </c>
-      <c r="S84" s="6">
-        <v>10</v>
-      </c>
-      <c r="T84" s="6">
-        <v>15000</v>
-      </c>
-      <c r="U84" s="6">
-        <v>0</v>
-      </c>
-      <c r="V84" s="6">
-        <v>0</v>
-      </c>
-      <c r="W84" s="6">
-        <v>6950</v>
-      </c>
-      <c r="X84" s="6">
-        <v>500</v>
-      </c>
-      <c r="Y84" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z84" s="6">
-        <v>26500</v>
-      </c>
-      <c r="AA84" s="6">
-        <v>298950</v>
-      </c>
-      <c r="AB84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE84" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="N87" t="s">
-        <v>216</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="14:33" ht="36" x14ac:dyDescent="0.45">
-      <c r="O88" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P88" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="R88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S88" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="T88" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="U88" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="X88" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y88" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z88" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB88" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC88" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD88" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF88" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG88" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P89" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y89" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z89" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA89" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC89" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD89" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE89" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG89" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O90" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="W90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y90" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z90" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA90" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC90" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG90" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="V91" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="W91" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="X91" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y91" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z91" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA91" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC91" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD91" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE91" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG91" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="N93" t="s">
-        <v>216</v>
-      </c>
-      <c r="O93" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="14:33" ht="54" x14ac:dyDescent="0.45">
-      <c r="O94" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R94" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="T94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="U94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V94" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="W94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X94" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y94" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z94" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA94" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB94" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC94" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD94" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG94" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O95" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q95" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="R95" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="S95" s="8">
-        <v>220000</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U95" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="V95" s="8">
-        <v>1300</v>
-      </c>
-      <c r="W95" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="X95" s="8">
-        <v>1500</v>
-      </c>
-      <c r="Y95" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z95" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA95" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC95" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD95" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE95" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF95" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG95" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="14:33" x14ac:dyDescent="0.45">
-      <c r="O96" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S96" s="6">
-        <v>250000</v>
-      </c>
-      <c r="T96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V96" s="6">
-        <v>1300</v>
-      </c>
-      <c r="W96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X96" s="6">
-        <v>1500</v>
-      </c>
-      <c r="Y96" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC96" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG96" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="15:33" x14ac:dyDescent="0.45">
-      <c r="O97" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S97" s="6">
-        <v>250000</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V97" s="6">
-        <v>1300</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="X97" s="6">
-        <v>1500</v>
-      </c>
-      <c r="Y97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z97" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG97" s="2" t="s">
-        <v>124</v>
+      <c r="Q280" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -8706,4 +9325,1293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91687F63-5915-8A47-B096-484A41E4AB35}">
+  <dimension ref="A1:V213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18">
+      <c r="A3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16">
+      <c r="B5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16">
+      <c r="B6" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>31413</v>
+      </c>
+      <c r="I6" s="17">
+        <v>39</v>
+      </c>
+      <c r="J6" s="17">
+        <v>20190101</v>
+      </c>
+      <c r="K6" s="17">
+        <v>6</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2310859</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="N6" s="17">
+        <v>7012344321</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="R6" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="17">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16">
+      <c r="B7" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>31414</v>
+      </c>
+      <c r="I7" s="17">
+        <v>34</v>
+      </c>
+      <c r="J7" s="17">
+        <v>20190101</v>
+      </c>
+      <c r="K7" s="17">
+        <v>6</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2310859</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" s="17">
+        <v>7012344322</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="R7" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
+      <c r="T7" s="17">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16">
+      <c r="B8" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>31415</v>
+      </c>
+      <c r="I8" s="17">
+        <v>34</v>
+      </c>
+      <c r="J8" s="17">
+        <v>20190101</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2310859</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="N8" s="17">
+        <v>7012344323</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="R8" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="S8" s="17">
+        <v>1</v>
+      </c>
+      <c r="T8" s="17">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18">
+      <c r="A11" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16">
+      <c r="B13" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16">
+      <c r="B14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D14" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E14" s="17">
+        <v>20250131</v>
+      </c>
+      <c r="F14" s="17">
+        <v>160</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="I14" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16">
+      <c r="B15" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D15" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E15" s="17">
+        <v>20250131</v>
+      </c>
+      <c r="F15" s="17">
+        <v>165</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="I15" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16">
+      <c r="B16" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D16" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E16" s="17">
+        <v>20250131</v>
+      </c>
+      <c r="F16" s="17">
+        <v>172</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="I16" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18">
+      <c r="A19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16">
+      <c r="B21" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16">
+      <c r="B22" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D22" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="17">
+        <v>2000</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="T22" s="17">
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="V22" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16">
+      <c r="B23" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D23" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="17">
+        <v>3200</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17">
+        <v>3500</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="V23" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16">
+      <c r="B24" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" s="17">
+        <v>202501</v>
+      </c>
+      <c r="D24" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="17">
+        <v>2800</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17">
+        <v>2800</v>
+      </c>
+      <c r="R24" s="17">
+        <v>5000</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <v>20250101</v>
+      </c>
+      <c r="V24" s="17">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="16">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="27" spans="1:22" ht="18">
+      <c r="A27" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16">
+      <c r="B29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16">
+      <c r="B30" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2310859</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="19">
+        <v>20200101</v>
+      </c>
+      <c r="H30" s="19">
+        <v>7012340000</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" s="19">
+        <v>0</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="N30" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="16">
+      <c r="B31" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>2310859</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" s="19">
+        <v>20200101</v>
+      </c>
+      <c r="H31" s="19">
+        <v>7012340001</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="N31" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="16">
+      <c r="B32" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2310859</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="19">
+        <v>20200101</v>
+      </c>
+      <c r="H32" s="19">
+        <v>7012340001</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="N32" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="18">
+      <c r="A35" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="16">
+      <c r="B37" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="16">
+      <c r="B38" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="19">
+        <v>500000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <v>140</v>
+      </c>
+      <c r="I38" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J38" s="19">
+        <v>180</v>
+      </c>
+      <c r="K38" s="19">
+        <v>5000</v>
+      </c>
+      <c r="L38" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="M38" s="19">
+        <v>20250131</v>
+      </c>
+      <c r="N38" s="19">
+        <v>30</v>
+      </c>
+      <c r="O38" s="19">
+        <v>1</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="T38" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16">
+      <c r="B39" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="19">
+        <v>450000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19">
+        <v>140</v>
+      </c>
+      <c r="I39" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J39" s="19">
+        <v>180</v>
+      </c>
+      <c r="K39" s="19">
+        <v>5000</v>
+      </c>
+      <c r="L39" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="M39" s="19">
+        <v>20250131</v>
+      </c>
+      <c r="N39" s="19">
+        <v>30</v>
+      </c>
+      <c r="O39" s="19">
+        <v>1</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="T39" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16">
+      <c r="B40" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="19">
+        <v>480000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="19">
+        <v>140</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4000</v>
+      </c>
+      <c r="J40" s="19">
+        <v>180</v>
+      </c>
+      <c r="K40" s="19">
+        <v>5000</v>
+      </c>
+      <c r="L40" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="M40" s="19">
+        <v>20250131</v>
+      </c>
+      <c r="N40" s="19">
+        <v>30</v>
+      </c>
+      <c r="O40" s="19">
+        <v>1</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <v>20250101</v>
+      </c>
+      <c r="T40" s="19">
+        <v>20250101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="18">
+      <c r="A43" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18">
+      <c r="A89" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18">
+      <c r="A130" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="18">
+      <c r="A168" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="16">
+      <c r="B170" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E170" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I170" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J170" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K170" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L170" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M170" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N170" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O170" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="P170" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q170" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R170" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="16">
+      <c r="B171" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" s="17">
+        <v>202501</v>
+      </c>
+      <c r="E171" s="17">
+        <v>160</v>
+      </c>
+      <c r="F171" s="17">
+        <v>0</v>
+      </c>
+      <c r="G171" s="17">
+        <v>0</v>
+      </c>
+      <c r="H171" s="17">
+        <v>0</v>
+      </c>
+      <c r="I171" s="17">
+        <v>0</v>
+      </c>
+      <c r="J171" s="17">
+        <v>3000</v>
+      </c>
+      <c r="K171" s="17">
+        <v>2000</v>
+      </c>
+      <c r="L171" s="17">
+        <v>10</v>
+      </c>
+      <c r="M171" s="17">
+        <v>50000</v>
+      </c>
+      <c r="N171" s="17">
+        <v>555000</v>
+      </c>
+      <c r="O171" s="17"/>
+      <c r="P171" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q171" s="17"/>
+      <c r="R171" s="17"/>
+    </row>
+    <row r="172" spans="1:18" ht="16">
+      <c r="B172" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D172" s="17">
+        <v>202501</v>
+      </c>
+      <c r="E172" s="17">
+        <v>165</v>
+      </c>
+      <c r="F172" s="17">
+        <v>0</v>
+      </c>
+      <c r="G172" s="17">
+        <v>0</v>
+      </c>
+      <c r="H172" s="17">
+        <v>0</v>
+      </c>
+      <c r="I172" s="17">
+        <v>0</v>
+      </c>
+      <c r="J172" s="17">
+        <v>3500</v>
+      </c>
+      <c r="K172" s="17">
+        <v>0</v>
+      </c>
+      <c r="L172" s="17">
+        <v>10</v>
+      </c>
+      <c r="M172" s="17">
+        <v>45000</v>
+      </c>
+      <c r="N172" s="17">
+        <v>498500</v>
+      </c>
+      <c r="O172" s="17"/>
+      <c r="P172" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q172" s="17"/>
+      <c r="R172" s="17"/>
+    </row>
+    <row r="173" spans="1:18" ht="16">
+      <c r="B173" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" s="17">
+        <v>202501</v>
+      </c>
+      <c r="E173" s="17">
+        <v>172</v>
+      </c>
+      <c r="F173" s="17">
+        <v>0</v>
+      </c>
+      <c r="G173" s="17">
+        <v>0</v>
+      </c>
+      <c r="H173" s="17">
+        <v>0</v>
+      </c>
+      <c r="I173" s="17">
+        <v>0</v>
+      </c>
+      <c r="J173" s="17">
+        <v>2800</v>
+      </c>
+      <c r="K173" s="17">
+        <v>5000</v>
+      </c>
+      <c r="L173" s="17">
+        <v>10</v>
+      </c>
+      <c r="M173" s="17">
+        <v>48000</v>
+      </c>
+      <c r="N173" s="17">
+        <v>535800</v>
+      </c>
+      <c r="O173" s="17"/>
+      <c r="P173" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q173" s="17"/>
+      <c r="R173" s="17"/>
+    </row>
+    <row r="176" spans="1:18" ht="18">
+      <c r="A176" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="18">
+      <c r="A213" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>